--- a/data/trans_dic/P18_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 16,95</t>
+          <t>4,66; 27,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 18,41</t>
+          <t>4,29; 30,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 17,95</t>
+          <t>3,18; 29,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,94</t>
+          <t>3,24; 12,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 18,69</t>
+          <t>5,29; 14,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,85</t>
+          <t>9,79; 19,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 17,66</t>
+          <t>4,75; 12,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,72</t>
+          <t>8,04; 17,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,12</t>
+          <t>8,87; 18,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,85</t>
+          <t>11,53; 23,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,89</t>
+          <t>9,1; 19,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,96</t>
+          <t>5,55; 18,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 19,37</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 13,44</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 17,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,32</t>
+          <t>2,0; 9,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,25</t>
+          <t>1,97; 9,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,36</t>
+          <t>4,41; 14,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,43</t>
+          <t>4,2; 13,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,47</t>
+          <t>4,29; 14,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 18,12</t>
+          <t>15,64; 28,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 20,71</t>
+          <t>6,66; 16,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 20,94</t>
+          <t>11,61; 23,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 17,57</t>
+          <t>8,41; 18,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,77</t>
+          <t>15,31; 29,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,88</t>
+          <t>10,54; 18,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,64</t>
+          <t>5,38; 11,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 16,7</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 14,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 20,53</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,13</t>
+          <t>0,0; 19,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,49</t>
+          <t>0,0; 13,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 20,09</t>
+          <t>2,11; 31,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,25</t>
+          <t>2,66; 23,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 21,06</t>
+          <t>0,0; 19,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 20,8</t>
+          <t>2,6; 24,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,63</t>
+          <t>5,34; 29,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,58</t>
+          <t>2,24; 20,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,85</t>
+          <t>1,36; 12,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,34</t>
+          <t>0,0; 9,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 17,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 17,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 22,89</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,71</t>
+          <t>3,88; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,75</t>
+          <t>3,66; 19,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,44</t>
+          <t>4,77; 17,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,45</t>
+          <t>4,46; 10,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,06</t>
+          <t>6,27; 13,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,4</t>
+          <t>13,53; 20,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,0</t>
+          <t>6,42; 12,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,06</t>
+          <t>10,91; 18,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,37</t>
+          <t>9,97; 16,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,92</t>
+          <t>14,07; 22,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,4</t>
+          <t>9,76; 15,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,7</t>
+          <t>6,08; 13,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 16,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 12,55</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 16,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37085</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48329</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35868</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25380</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49336</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61984</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39316</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51861</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52757</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92123</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>99069</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87645</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>87729</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>78136</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>141459</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16953; 98263</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18459; 131054</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11646; 107219</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12346; 45962</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27158; 76628</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42436; 85871</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24158; 63489</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33708; 72686</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36133; 74934</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64997; 129739</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72501; 153023</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52121; 173643</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58967; 152138</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>56982; 105961</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>101498; 184853</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15505</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17322</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25379</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35340</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>75508</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46167</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57931</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43741</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91781</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91013</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63489</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>83310</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>70442</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>127121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6097; 29742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7028; 33132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14025; 45605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13542; 44685</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17698; 59542</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53993; 99258</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28345; 69181</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39301; 79115</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28167; 63140</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65804; 125520</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68511; 121167</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42061; 88432</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>59241; 109700</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>51621; 97187</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>96070; 172917</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13316</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8731</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9063</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11363</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8731</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13867</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13565</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>23388</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15566</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11702</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2519; 37645</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2198; 19800</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18832</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2124; 19946</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4412; 24635</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2419; 22161</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2233; 20394</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18306</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4980; 28715</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5801; 28900</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9930; 52109</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52589</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65651</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66050</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54282</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97992</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>90649</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118855</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107862</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>193977</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>198813</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>156300</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>184905</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>162144</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>291968</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29098; 118115</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32473; 168867</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36416; 134315</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35174; 81260</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65545; 138704</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>116538; 176868</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66291; 125173</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>91572; 153552</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>82243; 140067</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>155032; 244925</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>157154; 256715</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>116844; 251635</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>146780; 263874</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>126592; 202525</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>234587; 357470</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
